--- a/Loadcell/Vægtanalyse.xlsx
+++ b/Loadcell/Vægtanalyse.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parwe\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parwe\Desktop\IKT\3. Semester\Semesterprojekt3\I3PRJ\Loadcell\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>ADC</t>
   </si>
@@ -121,10 +121,7 @@
     <t>0x115</t>
   </si>
   <si>
-    <t xml:space="preserve">adc </t>
-  </si>
-  <si>
-    <t>gram</t>
+    <t>Vægt (g)</t>
   </si>
 </sst>
 </file>
@@ -668,7 +665,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="da-DK" baseline="0"/>
-              <a:t> pr. gram, 0-100 g</a:t>
+              <a:t> pr gram, 0-100 g</a:t>
             </a:r>
             <a:endParaRPr lang="da-DK"/>
           </a:p>
@@ -969,6 +966,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Vægt</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" baseline="0"/>
+                  <a:t> (g)</a:t>
+                </a:r>
+                <a:endParaRPr lang="da-DK"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1031,6 +1088,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>ADC</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3389,15 +3501,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>42861</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:colOff>349777</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>125939</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>466724</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>159807</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>59264</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3424,16 +3536,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>42861</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>519112</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>115357</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>466724</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:colOff>329141</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>48682</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4099,18 +4211,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A59E8A54-9ADD-474C-9B02-0B71C3EF091B}">
   <dimension ref="C5:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
